--- a/biology/Médecine/Lymphome_lymphocytique/Lymphome_lymphocytique.xlsx
+++ b/biology/Médecine/Lymphome_lymphocytique/Lymphome_lymphocytique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lymphome lymphocytique, encore appelé lymphome à petits lymphocytes ou lymphome à petites cellules, est un type de lymphome diffus de bas grade de malignité dû à la prolifération de lymphocytes immatures dans les ganglions[1]..
-Ce lymphome s’apparente à la leucémie lymphoïde chronique (LLC) [2], dont il se distingue par ses localisations affectant principalement les ganglions lymphatiques alors que les LLC touchent surtout le sang et la moelle osseuse[1].
-Il peut se transformer en un type plus agressif comme un lymphome à grandes cellules appelé syndrome de Richter[1]. Il est globalement assez fréquent parmi les lymphomes dont il représente environ 7%[1].
-En France, le pronostic des lymphomes lymphocytiques ne se distingue pas de celui des LLC et se situe à un niveau très favorable avec une survie nette standardisée à 5 ans de 89 % pour les personnes diagnostiquées entre 2010 et 2015, et une mortalité en excès quasi nulle pour les patients de moins de 80 ans dès la première année de suivi[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lymphome lymphocytique, encore appelé lymphome à petits lymphocytes ou lymphome à petites cellules, est un type de lymphome diffus de bas grade de malignité dû à la prolifération de lymphocytes immatures dans les ganglions..
+Ce lymphome s’apparente à la leucémie lymphoïde chronique (LLC) , dont il se distingue par ses localisations affectant principalement les ganglions lymphatiques alors que les LLC touchent surtout le sang et la moelle osseuse.
+Il peut se transformer en un type plus agressif comme un lymphome à grandes cellules appelé syndrome de Richter. Il est globalement assez fréquent parmi les lymphomes dont il représente environ 7%.
+En France, le pronostic des lymphomes lymphocytiques ne se distingue pas de celui des LLC et se situe à un niveau très favorable avec une survie nette standardisée à 5 ans de 89 % pour les personnes diagnostiquées entre 2010 et 2015, et une mortalité en excès quasi nulle pour les patients de moins de 80 ans dès la première année de suivi.
 </t>
         </is>
       </c>
